--- a/z0bug_odoo/z0bug_odoo/testenv/res_partner.xlsx
+++ b/z0bug_odoo/z0bug_odoo/testenv/res_partner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="247">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -106,6 +106,51 @@
     <t xml:space="preserve">lang</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.partner_mycompany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via dei Matti, 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.state_it_mi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@testcompany.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+39 025551234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+39 025558069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT05111810015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.testcompany.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it_IT</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.res_partner_1</t>
   </si>
   <si>
@@ -115,21 +160,12 @@
     <t xml:space="preserve">Via I Maggio, 101</t>
   </si>
   <si>
-    <t xml:space="preserve">base.it</t>
-  </si>
-  <si>
     <t xml:space="preserve">20022</t>
   </si>
   <si>
     <t xml:space="preserve">Castano Primo</t>
   </si>
   <si>
-    <t xml:space="preserve">base.state_it_mi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
     <t xml:space="preserve">info@prima-alpha.it</t>
   </si>
   <si>
@@ -151,9 +187,6 @@
     <t xml:space="preserve">A1B2C3X</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.res_partner_1_1</t>
   </si>
   <si>
@@ -193,9 +226,6 @@
     <t xml:space="preserve">base.state_it_to</t>
   </si>
   <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
     <t xml:space="preserve">jacksonlibero@pec.notariato.it</t>
   </si>
   <si>
@@ -259,6 +289,9 @@
     <t xml:space="preserve">z0bug.fiscalpos_eu</t>
   </si>
   <si>
+    <t xml:space="preserve">XXXXXXX</t>
+  </si>
+  <si>
     <t xml:space="preserve">en_US</t>
   </si>
   <si>
@@ -458,9 +491,6 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.payment_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXXXXX</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_18</t>
@@ -820,12 +850,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -960,14 +994,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AMB26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB2" activeCellId="0" sqref="AB2"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="Y7" activeCellId="0" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -986,7 +1020,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="2.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="18.12"/>
@@ -1000,1619 +1034,1686 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="4.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="6.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="4.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="29" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="29" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16375" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="2" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="ALZ2" s="1"/>
+      <c r="AMA2" s="1"/>
+      <c r="AMB2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="I3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2" t="s">
-        <v>43</v>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="2" t="s">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2" t="s">
-        <v>43</v>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="I5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
+      <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2" t="s">
+      <c r="Q5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2" t="s">
-        <v>43</v>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="H6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2" t="s">
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2" t="s">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2" t="s">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3" t="s">
         <v>79</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2" t="s">
-        <v>79</v>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="A9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="G9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2" t="s">
-        <v>43</v>
+      <c r="L9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="G10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2" t="s">
-        <v>43</v>
+      <c r="L10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="G11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="2" t="s">
+      <c r="K11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AB11" s="2" t="s">
-        <v>43</v>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="G12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2" t="n">
+      <c r="L12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AA12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>43</v>
+      <c r="AA12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="G13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="L13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2" t="n">
+      <c r="T13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AA13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>43</v>
+      <c r="AA13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="A14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="G14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2" t="n">
+      <c r="L14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Y14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2" t="s">
-        <v>43</v>
+      <c r="AA14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="Q15" s="2" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="I15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2" t="n">
+      <c r="N15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Y15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2" t="s">
-        <v>43</v>
+      <c r="Y15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
+      <c r="H16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2" t="s">
+      <c r="L16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="Q16" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2" t="n">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Y16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2" t="s">
-        <v>79</v>
+      <c r="Y16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="A17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2" t="n">
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Y17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2" t="s">
-        <v>43</v>
+      <c r="Y17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="N18" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="2" t="s">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2" t="s">
+      <c r="S18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T18" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2" t="s">
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="S18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2" t="s">
-        <v>43</v>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="2" t="s">
+      <c r="I19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2" t="s">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2" t="s">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="T19" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2" t="s">
-        <v>43</v>
+      <c r="S19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="2" t="s">
+      <c r="K20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2" t="s">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2" t="s">
-        <v>43</v>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="D21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="H21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2" t="s">
+      <c r="K21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="N21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="O21" s="3"/>
+      <c r="P21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="S21" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2" t="s">
-        <v>43</v>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="H22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q22" s="2" t="s">
+      <c r="J22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2" t="n">
+      <c r="N22" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Y22" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2" t="s">
-        <v>43</v>
+      <c r="Y22" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="S23" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="T23" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2" t="s">
-        <v>43</v>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="2" t="s">
+      <c r="H24" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2" t="s">
-        <v>43</v>
+      <c r="N24" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="G25" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="H25" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2" t="s">
+      <c r="L25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2" t="n">
+      <c r="N25" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Y25" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2" t="s">
-        <v>43</v>
+      <c r="Y25" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/z0bug_odoo/testenv/res_partner.xlsx
+++ b/z0bug_odoo/z0bug_odoo/testenv/res_partner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="244">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -103,9 +103,6 @@
     <t xml:space="preserve">ipa_code</t>
   </si>
   <si>
-    <t xml:space="preserve">lang</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.partner_mycompany</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t xml:space="preserve">https://www.testcompany.org</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.res_partner_1</t>
   </si>
   <si>
@@ -290,9 +284,6 @@
   </si>
   <si>
     <t xml:space="preserve">XXXXXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_US</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_13</t>
@@ -994,14 +985,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMB26"/>
+  <dimension ref="A1:AMA26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y7" activeCellId="0" sqref="Y7"/>
+      <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AB1" activeCellId="0" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1033,9 +1024,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="4.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="6.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="4.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="29" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16375" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1012" min="28" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16374" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,58 +1110,55 @@
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -1182,68 +1169,65 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="ALY2" s="1"/>
       <c r="ALZ2" s="1"/>
       <c r="AMA2" s="1"/>
-      <c r="AMB2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="U3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -1251,127 +1235,121 @@
         <v>1</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
-      <c r="AB4" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -1379,61 +1357,58 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -1441,112 +1416,106 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
-      <c r="AB6" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="3" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1555,44 +1524,41 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="3" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1601,60 +1567,57 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1666,60 +1629,57 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
-      <c r="AB10" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -1729,60 +1689,57 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1793,66 +1750,63 @@
         <v>1</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -1861,52 +1815,49 @@
         <v>1</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1914,11 +1865,11 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -1927,67 +1878,64 @@
         <v>1</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -1995,56 +1943,53 @@
         <v>1</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="Q16" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -2053,57 +1998,54 @@
         <v>1</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-      <c r="AB16" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -2112,66 +2054,63 @@
         <v>1</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="3" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2180,71 +2119,68 @@
         <v>1</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
-      <c r="AB18" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="I19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="N19" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -2252,67 +2188,64 @@
         <v>1</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AB19" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -2320,57 +2253,54 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
-      <c r="AB20" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -2380,64 +2310,61 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
-      <c r="AB21" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2446,68 +2373,65 @@
         <v>1</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
-      <c r="AB22" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="S23" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="T23" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -2516,65 +2440,62 @@
         <v>1</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
-      <c r="AB23" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -2582,60 +2503,57 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
-      <c r="AB24" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -2644,61 +2562,58 @@
         <v>1</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -2708,13 +2623,10 @@
         <v>1</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
-      <c r="AB26" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/z0bug_odoo/z0bug_odoo/testenv/res_partner.xlsx
+++ b/z0bug_odoo/z0bug_odoo/testenv/res_partner.xlsx
@@ -283,25 +283,25 @@
     <t xml:space="preserve">z0bug.fiscalpos_eu</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.res_partner_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axilor GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christophstraße 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Määnz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE812526315</t>
+  </si>
+  <si>
     <t xml:space="preserve">XXXXXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.res_partner_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axilor GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christophstraße 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Määnz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE812526315</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_13_1</t>
@@ -988,11 +988,11 @@
   <dimension ref="A1:AMA26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="bottomRight" activeCell="S7" activeCellId="0" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1466,32 +1466,30 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
@@ -1507,7 +1505,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1521,7 +1519,9 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="Y8" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
@@ -1530,7 +1530,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>95</v>
@@ -1589,7 +1589,7 @@
         <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>102</v>
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>

--- a/z0bug_odoo/z0bug_odoo/testenv/res_partner.xlsx
+++ b/z0bug_odoo/z0bug_odoo/testenv/res_partner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="244">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -283,6 +283,9 @@
     <t xml:space="preserve">z0bug.fiscalpos_eu</t>
   </si>
   <si>
+    <t xml:space="preserve">XXXXXXX</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.res_partner_13</t>
   </si>
   <si>
@@ -299,9 +302,6 @@
   </si>
   <si>
     <t xml:space="preserve">DE812526315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXXXXX</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_13_1</t>
@@ -988,11 +988,11 @@
   <dimension ref="A1:AMA26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S7" activeCellId="0" sqref="S7"/>
+      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1466,30 +1466,32 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="Y7" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
@@ -1505,7 +1507,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1520,7 +1522,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
@@ -1530,7 +1532,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>95</v>
@@ -1589,7 +1591,7 @@
         <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>102</v>
@@ -1998,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -2054,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>

--- a/z0bug_odoo/z0bug_odoo/testenv/res_partner.xlsx
+++ b/z0bug_odoo/z0bug_odoo/testenv/res_partner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="245">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.testcompany.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URCROKA</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_1</t>
@@ -988,11 +991,11 @@
   <dimension ref="A1:AMA26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="Y3" activeCellId="0" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1165,8 +1168,12 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="X2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="ALY2" s="1"/>
@@ -1175,24 +1182,24 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>33</v>
@@ -1207,27 +1214,27 @@
         <v>35</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -1235,34 +1242,34 @@
         <v>1</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>35</v>
@@ -1274,22 +1281,22 @@
         <v>35</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -1299,27 +1306,27 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>34</v>
@@ -1331,25 +1338,25 @@
         <v>35</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -1360,29 +1367,29 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>34</v>
@@ -1394,21 +1401,21 @@
         <v>35</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -1419,24 +1426,24 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
@@ -1452,46 +1459,48 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="X7" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="Y7" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
@@ -1507,48 +1516,50 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
+      <c r="X8" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="Y8" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>33</v>
@@ -1569,17 +1580,17 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -1588,29 +1599,29 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>35</v>
@@ -1631,7 +1642,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -1641,27 +1652,27 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>34</v>
@@ -1676,12 +1687,12 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -1694,27 +1705,27 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>35</v>
@@ -1726,22 +1737,22 @@
         <v>35</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1752,34 +1763,34 @@
         <v>1</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>35</v>
@@ -1791,24 +1802,24 @@
         <v>35</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -1817,34 +1828,34 @@
         <v>1</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>35</v>
@@ -1856,10 +1867,10 @@
         <v>35</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1867,11 +1878,11 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -1880,29 +1891,29 @@
         <v>1</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>33</v>
@@ -1917,27 +1928,27 @@
         <v>35</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -1945,31 +1956,31 @@
         <v>1</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
@@ -1984,14 +1995,14 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="Q16" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -2000,31 +2011,31 @@
         <v>1</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
@@ -2037,17 +2048,17 @@
         <v>35</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -2056,34 +2067,34 @@
         <v>1</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>35</v>
@@ -2095,24 +2106,24 @@
         <v>35</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2121,36 +2132,36 @@
         <v>1</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>35</v>
@@ -2162,27 +2173,27 @@
         <v>35</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -2190,34 +2201,34 @@
         <v>1</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>34</v>
@@ -2229,25 +2240,25 @@
         <v>35</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -2258,27 +2269,27 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>34</v>
@@ -2290,19 +2301,19 @@
         <v>35</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -2315,24 +2326,24 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>33</v>
@@ -2347,26 +2358,26 @@
         <v>35</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2375,31 +2386,31 @@
         <v>1</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>33</v>
@@ -2414,26 +2425,26 @@
         <v>35</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -2442,31 +2453,31 @@
         <v>1</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="s">
@@ -2479,25 +2490,25 @@
         <v>35</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -2508,27 +2519,27 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>35</v>
@@ -2540,22 +2551,22 @@
         <v>35</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -2564,34 +2575,34 @@
         <v>1</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>35</v>
@@ -2603,19 +2614,19 @@
         <v>35</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -2625,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
